--- a/Documentos/CalculoFP.xlsx
+++ b/Documentos/CalculoFP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>FP</t>
   </si>
@@ -70,13 +70,52 @@
   </si>
   <si>
     <t>FP=</t>
+  </si>
+  <si>
+    <t>10 FP/Mês</t>
+  </si>
+  <si>
+    <t>Estimativas</t>
+  </si>
+  <si>
+    <t>2 Meses</t>
+  </si>
+  <si>
+    <t>Júnior: R$ 3.360,00</t>
+  </si>
+  <si>
+    <t>Pleno: R$ 4.704,00</t>
+  </si>
+  <si>
+    <t>Sênior: R$ 7.840,00</t>
+  </si>
+  <si>
+    <t>Média Salarial Programador C++</t>
+  </si>
+  <si>
+    <t>Capacidade de Produção</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>*http://www.guiadacarreira.com.br/salarios/quanto-ganha-um-programador/</t>
+  </si>
+  <si>
+    <t>O tempo total de trabalho no desenvolvimento da Agenda foi semelhante ao estimado pelo FP. Os riscos foram mais relacionados à disponibilidade de tempo para o respectivo programador desenvolver as atividades extra-classe, porém necessidade foi suprida satisfatóriamente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +146,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -122,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -215,18 +261,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,31 +318,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -274,6 +341,69 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,186 +719,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <f>B4*C4</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <f t="shared" ref="G5:G8" si="0">B5*C5</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>15</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <f>SUM(G4:G8)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1">
@@ -784,19 +915,113 @@
         <f>5+1+1+3+1+1+3</f>
         <v>15</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <f>B11*(C11+(D11*E11))</f>
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="30">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="25" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
